--- a/data/euclidean_matrix.xlsx
+++ b/data/euclidean_matrix.xlsx
@@ -1,37 +1,153 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\ubuntu\home\pierre\routage-du-coeur\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21083D34-F1F1-4B87-AB57-51DB2AFB9141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-9675" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+  <si>
+    <t>Toulouse/Seminaire</t>
+  </si>
+  <si>
+    <t>Auterive</t>
+  </si>
+  <si>
+    <t>Bagneres de Luchon</t>
+  </si>
+  <si>
+    <t>Bessieres</t>
+  </si>
+  <si>
+    <t>Blagnac</t>
+  </si>
+  <si>
+    <t>Carbonne</t>
+  </si>
+  <si>
+    <t>Cazeres</t>
+  </si>
+  <si>
+    <t>Cugnaux</t>
+  </si>
+  <si>
+    <t>Escalquens</t>
+  </si>
+  <si>
+    <t>Fenouillet</t>
+  </si>
+  <si>
+    <t>Fonsorbes</t>
+  </si>
+  <si>
+    <t>Fronton</t>
+  </si>
+  <si>
+    <t>L Isle en Dodon</t>
+  </si>
+  <si>
+    <t>Leguevin</t>
+  </si>
+  <si>
+    <t>Levignac</t>
+  </si>
+  <si>
+    <t>Montrejeau</t>
+  </si>
+  <si>
+    <t>Muret</t>
+  </si>
+  <si>
+    <t>Pibrac</t>
+  </si>
+  <si>
+    <t>Plaisance du Touch</t>
+  </si>
+  <si>
+    <t>Portet sur Garonne</t>
+  </si>
+  <si>
+    <t>Revel</t>
+  </si>
+  <si>
+    <t>Rieumes</t>
+  </si>
+  <si>
+    <t>Saint-Gaudens</t>
+  </si>
+  <si>
+    <t>Salies du Salat/Mane</t>
+  </si>
+  <si>
+    <t>Toulouse/Grande-Bretagne(Casselardit)</t>
+  </si>
+  <si>
+    <t>Toulouse/Malepere</t>
+  </si>
+  <si>
+    <t>Toulouse/Negogousses(Les Arenes)</t>
+  </si>
+  <si>
+    <t>Tournefeuille</t>
+  </si>
+  <si>
+    <t>Villefranche de Lauragais</t>
+  </si>
+  <si>
+    <t>Auchan Gramont</t>
+  </si>
+  <si>
+    <t>Leclerc St Orens</t>
+  </si>
+  <si>
+    <t>Super U Flourens</t>
+  </si>
+  <si>
+    <t>Leclerc Blagnac</t>
+  </si>
+  <si>
+    <t>Leclerc Rouffiac</t>
+  </si>
+  <si>
+    <t>Carrefour Supply Chain</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +162,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,4338 +486,3969 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AK37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Toulouse/Seminaire</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Auterive</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Bagneres de Luchon</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Bessieres</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Blagnac</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Carbonne</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Cazeres</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Cugnaux</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Escalquens</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Fenouillet</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Fonsorbes</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Fronton</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>L Isle en Dodon</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Leguevin</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Levignac</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Montrejeau</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Muret</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Pibrac</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Plaisance du Touch</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Portet sur Garonne</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Revel</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Rieumes</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Saint-Gaudens</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Salies du Salat/Mane</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Toulouse/Grande-Bretagne(Casselardit)</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Toulouse/Malepere</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Toulouse/Negogousses(Les Arenes)</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Tournefeuille</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Villefranche de Lauragais</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>METRO</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Auchan Gramont</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Leclerc St Orens</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Super U Flourens</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Leclerc Blagnac</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Leclerc Rouffiac</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Carrefour Supply Chain</t>
-        </is>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Toulouse/Seminaire</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>40628</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>142865</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>27451</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>8765</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>48829</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>63030</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>17091</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>20063</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>6373</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>23703</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>25957</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>66957</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>22196</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>27894</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>111389</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>23602</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>17633</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>16394</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>13674</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>56824</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>41657</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>99244</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>84467</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>8278</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>12287</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>8601</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>15423</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>39362</v>
       </c>
-      <c r="AE2" t="n">
-        <v>3906</v>
-      </c>
-      <c r="AF2" t="n">
+      <c r="AE2">
         <v>5789</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AF2">
         <v>12838</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AG2">
         <v>16363</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AH2">
         <v>9362</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AI2">
         <v>8713</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AJ2">
         <v>16616</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Auterive</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>40220</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>122154</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>66826</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>40675</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>27961</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>42125</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>28468</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>26790</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>44456</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>33763</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>64040</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>62794</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>41540</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>51388</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>90678</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>22450</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>43464</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>34658</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>26793</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>53331</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>35202</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>78533</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>63756</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>34713</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>32345</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>32936</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>34907</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>25825</v>
       </c>
-      <c r="AE3" t="n">
-        <v>41068</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AE3">
         <v>39282</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AF3">
         <v>32896</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AG3">
         <v>36576</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AH3">
         <v>40643</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AI3">
         <v>46923</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AJ3">
         <v>37684</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Bagneres de Luchon</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>142433</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>119381</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>169039</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>142387</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>97167</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>82620</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>125659</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>146119</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>146168</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>125662</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>166593</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>86452</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>134271</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>132661</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>39812</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>119164</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>138510</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>130404</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>128505</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>172712</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>106570</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>47743</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>58366</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>136425</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>141548</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>134648</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>132348</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>145206</v>
       </c>
-      <c r="AE4" t="n">
-        <v>142780</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AE4">
         <v>144048</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AF4">
         <v>142099</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AG4">
         <v>148961</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AH4">
         <v>142355</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AI4">
         <v>149520</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AJ4">
         <v>133151</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Bessieres</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>27465</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>67617</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>169537</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>34918</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>75501</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>89702</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>43763</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>43549</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>25566</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>50273</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>22093</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>93534</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>48349</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>50317</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>138061</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>50121</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>44321</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>43082</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>40193</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>58419</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>67810</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>125916</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>111139</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>34376</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>35273</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>35120</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>42111</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>56423</v>
       </c>
-      <c r="AE5" t="n">
-        <v>28382</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AE5">
         <v>27453</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AF5">
         <v>35824</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AG5">
         <v>33914</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AH5">
         <v>35713</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AI5">
         <v>20945</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AJ5">
         <v>43304</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Blagnac</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>9157</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>41004</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>142302</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>36322</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>48266</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>62761</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>16528</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>23450</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>13347</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>21534</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>26941</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>64788</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>17601</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>19682</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>110826</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>25040</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>12407</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>14225</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>15112</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>60230</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>38946</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>98681</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>83904</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>6538</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>16499</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>8070</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>13254</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>42749</v>
       </c>
-      <c r="AE6" t="n">
-        <v>8562</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AE6">
         <v>12219</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AF6">
         <v>17050</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AG6">
         <v>20776</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AH6">
         <v>2291</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AI6">
         <v>17196</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AJ6">
         <v>14116</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Carbonne</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>47682</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>26146</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>96474</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>74288</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>48137</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>14773</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>31497</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>47922</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>51918</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>34761</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>71502</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>39284</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>42620</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>52693</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>66587</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>25002</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>44769</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>36242</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>34255</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>79477</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>18188</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>53227</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>38076</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>42175</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>47298</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>40398</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>38186</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>51971</v>
       </c>
-      <c r="AE7" t="n">
-        <v>48530</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AE7">
         <v>48187</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AF7">
         <v>47849</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AG7">
         <v>54011</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AH7">
         <v>48105</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AI7">
         <v>54769</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AJ7">
         <v>38989</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Cazeres</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>62491</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>40454</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>82623</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>89097</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>62946</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>15457</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>46023</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>62732</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>66727</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>47274</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>86311</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>37587</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>55773</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>63895</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>55026</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>39812</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>59295</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>50768</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>49064</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>93785</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>28868</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>39376</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>24225</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>56984</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>62107</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>55207</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>52712</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>66279</v>
       </c>
-      <c r="AE8" t="n">
-        <v>63339</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AE8">
         <v>62996</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AF8">
         <v>62658</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AG8">
         <v>68820</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AH8">
         <v>62914</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AI8">
         <v>69578</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AJ8">
         <v>53515</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Cugnaux</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>16992</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>27159</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>125774</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>43598</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>17633</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>31738</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>46233</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>25214</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>22407</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>12511</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>41991</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>55392</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>14745</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>23960</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>94298</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>9023</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>15223</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>7509</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>7258</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>61996</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>26557</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>82153</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>67376</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>12285</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9">
         <v>17252</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>11000</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9">
         <v>8079</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>42238</v>
       </c>
-      <c r="AE9" t="n">
-        <v>19597</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AE9">
         <v>17497</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AF9">
         <v>17803</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AG9">
         <v>23321</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AH9">
         <v>17413</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AI9">
         <v>24079</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AJ9">
         <v>10256</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Escalquens</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>19992</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>28039</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>145665</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>43187</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>24124</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>49191</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>63828</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>25398</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>25960</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>34095</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>44537</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>77223</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>33343</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>39799</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>115599</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>27813</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>30578</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>26802</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>19656</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>39959</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>48388</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>102418</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>87267</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>18199</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10">
         <v>7998</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>17167</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10">
         <v>25831</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10">
         <v>20571</v>
       </c>
-      <c r="AE10" t="n">
-        <v>22013</v>
-      </c>
-      <c r="AF10" t="n">
+      <c r="AE10">
         <v>15646</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AF10">
         <v>7732</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AG10">
         <v>12337</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AH10">
         <v>24699</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AI10">
         <v>22100</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AJ10">
         <v>28183</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Fenouillet</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>6765</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>44062</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>145947</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>25634</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>12212</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>51911</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>66548</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>21956</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>24427</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>27567</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>19584</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>70763</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>24778</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>24751</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>114471</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>28329</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>19584</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>20376</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>18539</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>61062</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>45104</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>102326</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>87549</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>11670</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11">
         <v>17476</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>13172</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11">
         <v>19405</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11">
         <v>43726</v>
       </c>
-      <c r="AE11" t="n">
-        <v>5676</v>
-      </c>
-      <c r="AF11" t="n">
+      <c r="AE11">
         <v>10846</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AF11">
         <v>18027</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AG11">
         <v>21608</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AH11">
         <v>13007</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AI11">
         <v>12616</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AJ11">
         <v>20598</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Fonsorbes</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>24161</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>34399</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>126287</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>50976</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>21159</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>34941</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>49064</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>11767</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>33915</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>28310</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>44686</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>43886</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>7859</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>18022</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>91119</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>14443</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>12202</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>7128</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>19025</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>71181</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12">
         <v>19149</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12">
         <v>80952</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12">
         <v>67889</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12">
         <v>18182</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12">
         <v>26437</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12">
         <v>16540</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12">
         <v>9072</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12">
         <v>51929</v>
       </c>
-      <c r="AE12" t="n">
-        <v>23592</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AE12">
         <v>25658</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AF12">
         <v>26988</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AG12">
         <v>32269</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AH12">
         <v>21037</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AI12">
         <v>31248</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AJ12">
         <v>9418</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Fronton</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>24572</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>63609</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>165494</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>22126</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>27033</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>71458</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>86095</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>41503</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>43974</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>19547</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>44694</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>0</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>81305</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>38977</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>35293</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>128538</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>47876</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>33783</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>39648</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>38086</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>75963</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13">
         <v>63843</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13">
         <v>121409</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13">
         <v>107096</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13">
         <v>30793</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13">
         <v>36859</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13">
         <v>32295</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13">
         <v>38677</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13">
         <v>63273</v>
       </c>
-      <c r="AE13" t="n">
-        <v>24948</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AE13">
         <v>30361</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AF13">
         <v>37410</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AG13">
         <v>40935</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AH13">
         <v>28188</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AI13">
         <v>27749</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AJ13">
         <v>36634</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>L Isle en Dodon</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>67584</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>62517</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>86417</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>94321</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>64504</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>39825</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>37528</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>55024</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>77039</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>69602</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>43434</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>81579</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>0</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>51293</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>46209</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>47233</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>50173</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>55636</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14">
         <v>50473</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>59425</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>114497</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14">
         <v>28775</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14">
         <v>40104</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14">
         <v>47044</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14">
         <v>61527</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14">
         <v>69753</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14">
         <v>59885</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14">
         <v>52417</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14">
         <v>88342</v>
       </c>
-      <c r="AE14" t="n">
-        <v>66937</v>
-      </c>
-      <c r="AF14" t="n">
+      <c r="AE14">
         <v>69003</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AF14">
         <v>70304</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AG14">
         <v>75614</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AH14">
         <v>64471</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AI14">
         <v>74682</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AJ14">
         <v>52852</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Leguevin</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
         <v>21512</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>41357</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>132151</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>48248</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>17262</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>42293</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>54928</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>14198</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>33796</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>25541</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>7984</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>39096</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>48930</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>10163</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>96163</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>21795</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15">
         <v>5649</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15">
         <v>8869</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15">
         <v>20119</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15">
         <v>71062</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15">
         <v>26129</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15">
         <v>88778</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15">
         <v>73753</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15">
         <v>16131</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15">
         <v>26318</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15">
         <v>16539</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15">
         <v>10583</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15">
         <v>53095</v>
       </c>
-      <c r="AE15" t="n">
-        <v>20865</v>
-      </c>
-      <c r="AF15" t="n">
+      <c r="AE15">
         <v>25452</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AF15">
         <v>26869</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AG15">
         <v>31989</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AH15">
         <v>16153</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AI15">
         <v>30225</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AJ15">
         <v>6159</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Levignac</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <v>28910</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>50008</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>132893</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>49347</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>20822</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>52146</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>64445</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>22849</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>41459</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>23713</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>18644</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>35729</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>46476</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>10660</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>0</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>93709</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>31031</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16">
         <v>11002</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16">
         <v>17480</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16">
         <v>28365</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16">
         <v>78725</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W16">
         <v>35646</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X16">
         <v>86580</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y16">
         <v>83270</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z16">
         <v>23280</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16">
         <v>33981</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16">
         <v>24202</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16">
         <v>19176</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16">
         <v>60758</v>
       </c>
-      <c r="AE16" t="n">
-        <v>28263</v>
-      </c>
-      <c r="AF16" t="n">
+      <c r="AE16">
         <v>31920</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AF16">
         <v>34532</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AG16">
         <v>39618</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AH16">
         <v>18851</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AI16">
         <v>36329</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AJ16">
         <v>14405</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Montrejeau</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
         <v>110779</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>90648</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>39670</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>137385</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>111234</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>66503</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>53193</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>94595</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>114425</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>115015</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>90666</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>128811</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>47232</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>98525</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>93441</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>88100</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17">
         <v>102868</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17">
         <v>97705</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17">
         <v>97352</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17">
         <v>143979</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17">
         <v>75447</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X17">
         <v>15392</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y17">
         <v>37024</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z17">
         <v>105272</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17">
         <v>110395</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17">
         <v>103495</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17">
         <v>99649</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17">
         <v>116473</v>
       </c>
-      <c r="AE17" t="n">
-        <v>111627</v>
-      </c>
-      <c r="AF17" t="n">
+      <c r="AE17">
         <v>111284</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AF17">
         <v>110946</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AG17">
         <v>117108</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AH17">
         <v>111202</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AI17">
         <v>117866</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AJ17">
         <v>100084</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Muret</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
         <v>23257</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>22493</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>120027</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>49863</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>24659</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>25991</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>40627</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>9167</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>28039</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>28672</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>13852</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>48256</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>50886</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>21629</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18">
         <v>31599</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18">
         <v>88551</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>0</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18">
         <v>23553</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18">
         <v>15026</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18">
         <v>10916</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18">
         <v>66521</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18">
         <v>22051</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X18">
         <v>76406</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y18">
         <v>61629</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z18">
         <v>18697</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18">
         <v>23517</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18">
         <v>17665</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18">
         <v>16005</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18">
         <v>43383</v>
       </c>
-      <c r="AE18" t="n">
-        <v>25810</v>
-      </c>
-      <c r="AF18" t="n">
+      <c r="AE18">
         <v>23762</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AF18">
         <v>24068</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AG18">
         <v>29586</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AH18">
         <v>25197</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AI18">
         <v>30344</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AJ18">
         <v>17773</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Pibrac</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
         <v>18821</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>41822</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>137455</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>45557</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>12395</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>43960</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>58455</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>14663</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>31619</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>20635</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>12335</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>34229</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>54234</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>5976</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>10739</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>101467</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>22711</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19">
         <v>0</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19">
         <v>9294</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19">
         <v>19117</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19">
         <v>68070</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19">
         <v>30852</v>
       </c>
-      <c r="X19" t="n">
+      <c r="X19">
         <v>93287</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y19">
         <v>79057</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="Z19">
         <v>13142</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19">
         <v>23393</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19">
         <v>14362</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19">
         <v>10127</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19">
         <v>50918</v>
       </c>
-      <c r="AE19" t="n">
-        <v>18174</v>
-      </c>
-      <c r="AF19" t="n">
+      <c r="AE19">
         <v>22463</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AF19">
         <v>23944</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AG19">
         <v>28616</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AH19">
         <v>11286</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AI19">
         <v>27534</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AJ19">
         <v>6055</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Plaisance du Touch</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
         <v>17229</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>34184</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>130358</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>43921</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>14149</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>36322</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>50817</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>7025</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>26787</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>21300</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>7309</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>39256</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>50563</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>9297</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20">
         <v>17229</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20">
         <v>97796</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20">
         <v>15073</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20">
         <v>9305</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T20">
         <v>0</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U20">
         <v>12351</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V20">
         <v>64053</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W20">
         <v>25397</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X20">
         <v>86737</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y20">
         <v>71960</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="Z20">
         <v>11172</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20">
         <v>19309</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20">
         <v>9530</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20">
         <v>2062</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20">
         <v>46086</v>
       </c>
-      <c r="AE20" t="n">
-        <v>16582</v>
-      </c>
-      <c r="AF20" t="n">
+      <c r="AE20">
         <v>18648</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AF20">
         <v>19860</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AG20">
         <v>25378</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AH20">
         <v>14152</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AI20">
         <v>24402</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AJ20">
         <v>4338</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Portet sur Garonne</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
         <v>13427</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>27619</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>129504</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>40033</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>14829</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>35468</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>50105</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>7116</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>19973</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>18842</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>18628</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>38426</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>60363</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>20434</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21">
         <v>28029</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21">
         <v>98028</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21">
         <v>10988</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21">
         <v>18947</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21">
         <v>12229</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21">
         <v>0</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21">
         <v>58431</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21">
         <v>31528</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21">
         <v>85883</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21">
         <v>71106</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21">
         <v>8867</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21">
         <v>13687</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21">
         <v>7835</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21">
         <v>11258</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21">
         <v>39272</v>
       </c>
-      <c r="AE21" t="n">
-        <v>16032</v>
-      </c>
-      <c r="AF21" t="n">
+      <c r="AE21">
         <v>13932</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AF21">
         <v>14238</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AG21">
         <v>19756</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AH21">
         <v>15367</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AI21">
         <v>20514</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AJ21">
         <v>13983</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Revel</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
         <v>55637</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>53701</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>175855</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>58479</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>60143</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>81154</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>95318</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>62810</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>39963</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>61056</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>72345</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>75770</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>115599</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22">
         <v>70086</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22">
         <v>76542</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22">
         <v>144379</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22">
         <v>67776</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22">
         <v>67321</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T22">
         <v>65052</v>
       </c>
-      <c r="U22" t="n">
+      <c r="U22">
         <v>58121</v>
       </c>
-      <c r="V22" t="n">
+      <c r="V22">
         <v>0</v>
       </c>
-      <c r="W22" t="n">
+      <c r="W22">
         <v>88351</v>
       </c>
-      <c r="X22" t="n">
+      <c r="X22">
         <v>132234</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Y22">
         <v>117066</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="Z22">
         <v>54942</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AA22">
         <v>44969</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AB22">
         <v>55417</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AC22">
         <v>64081</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AD22">
         <v>28387</v>
       </c>
-      <c r="AE22" t="n">
-        <v>58162</v>
-      </c>
-      <c r="AF22" t="n">
+      <c r="AE22">
         <v>51377</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AF22">
         <v>44703</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AG22">
         <v>41992</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AH22">
         <v>60938</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AI22">
         <v>52501</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AJ22">
         <v>66250</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Rieumes</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
         <v>42567</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>35505</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>107138</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>69337</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>39565</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>18779</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>29915</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>27074</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>49089</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>46716</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>18406</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>63092</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>28835</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23">
         <v>26265</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23">
         <v>35027</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23">
         <v>76034</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23">
         <v>22223</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S23">
         <v>30608</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T23">
         <v>25534</v>
       </c>
-      <c r="U23" t="n">
+      <c r="U23">
         <v>31475</v>
       </c>
-      <c r="V23" t="n">
+      <c r="V23">
         <v>87818</v>
       </c>
-      <c r="W23" t="n">
+      <c r="W23">
         <v>0</v>
       </c>
-      <c r="X23" t="n">
+      <c r="X23">
         <v>63765</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Y23">
         <v>48740</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="Z23">
         <v>36588</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AA23">
         <v>44326</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AB23">
         <v>34946</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AC23">
         <v>27478</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AD23">
         <v>61330</v>
       </c>
-      <c r="AE23" t="n">
-        <v>41925</v>
-      </c>
-      <c r="AF23" t="n">
+      <c r="AE23">
         <v>43496</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AF23">
         <v>43802</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AG23">
         <v>49320</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AH23">
         <v>39443</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AI23">
         <v>49519</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AJ23">
         <v>27734</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Saint-Gaudens</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
         <v>95937</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>75444</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>47882</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>122543</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>97011</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>51299</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>37801</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>79391</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>99221</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>100792</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>80038</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>120376</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24">
         <v>39797</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24">
         <v>87897</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P24">
         <v>86006</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24">
         <v>16074</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R24">
         <v>72896</v>
       </c>
-      <c r="S24" t="n">
+      <c r="S24">
         <v>92240</v>
       </c>
-      <c r="T24" t="n">
+      <c r="T24">
         <v>84136</v>
       </c>
-      <c r="U24" t="n">
+      <c r="U24">
         <v>82510</v>
       </c>
-      <c r="V24" t="n">
+      <c r="V24">
         <v>128775</v>
       </c>
-      <c r="W24" t="n">
+      <c r="W24">
         <v>61632</v>
       </c>
-      <c r="X24" t="n">
+      <c r="X24">
         <v>0</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="Y24">
         <v>21781</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="Z24">
         <v>91049</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AA24">
         <v>96172</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AB24">
         <v>89272</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AC24">
         <v>86080</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AD24">
         <v>101269</v>
       </c>
-      <c r="AE24" t="n">
-        <v>97404</v>
-      </c>
-      <c r="AF24" t="n">
+      <c r="AE24">
         <v>96442</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AF24">
         <v>96723</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AG24">
         <v>102266</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AH24">
         <v>96804</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AI24">
         <v>103024</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AJ24">
         <v>86883</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Salies du Salat/Mane</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
         <v>83566</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>63346</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>58398</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>110172</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>84021</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>38801</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>24254</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>67293</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>86723</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>87802</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>66610</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>107386</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
         <v>47090</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25">
         <v>74469</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P25">
         <v>83231</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25">
         <v>37149</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R25">
         <v>60798</v>
       </c>
-      <c r="S25" t="n">
+      <c r="S25">
         <v>78812</v>
       </c>
-      <c r="T25" t="n">
+      <c r="T25">
         <v>72038</v>
       </c>
-      <c r="U25" t="n">
+      <c r="U25">
         <v>70139</v>
       </c>
-      <c r="V25" t="n">
+      <c r="V25">
         <v>116677</v>
       </c>
-      <c r="W25" t="n">
+      <c r="W25">
         <v>48204</v>
       </c>
-      <c r="X25" t="n">
+      <c r="X25">
         <v>21499</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Y25">
         <v>0</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="Z25">
         <v>78059</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AA25">
         <v>83182</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AB25">
         <v>76282</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AC25">
         <v>73982</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AD25">
         <v>89171</v>
       </c>
-      <c r="AE25" t="n">
-        <v>84414</v>
-      </c>
-      <c r="AF25" t="n">
+      <c r="AE25">
         <v>84071</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AF25">
         <v>83733</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AG25">
         <v>89895</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AH25">
         <v>83989</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AI25">
         <v>90653</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AJ25">
         <v>74785</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Toulouse/Grande-Bretagne(Casselardit)</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
         <v>7706</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>35443</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>137098</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>35157</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>5962</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>43062</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>57557</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>11324</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>18520</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>12754</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>17575</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>31946</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26">
         <v>60931</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26">
         <v>15144</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P26">
         <v>21600</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26">
         <v>105622</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R26">
         <v>19014</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S26">
         <v>12379</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T26">
         <v>10384</v>
       </c>
-      <c r="U26" t="n">
+      <c r="U26">
         <v>9086</v>
       </c>
-      <c r="V26" t="n">
+      <c r="V26">
         <v>55786</v>
       </c>
-      <c r="W26" t="n">
+      <c r="W26">
         <v>34885</v>
       </c>
-      <c r="X26" t="n">
+      <c r="X26">
         <v>93477</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Y26">
         <v>78700</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="Z26">
         <v>0</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AA26">
         <v>11042</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AB26">
         <v>2500</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AC26">
         <v>9413</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AD26">
         <v>37819</v>
       </c>
-      <c r="AE26" t="n">
-        <v>8263</v>
-      </c>
-      <c r="AF26" t="n">
+      <c r="AE26">
         <v>9321</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AF26">
         <v>11593</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AG26">
         <v>16408</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AH26">
         <v>6500</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AI26">
         <v>14793</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AJ26">
         <v>11362</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Toulouse/Malepere</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
         <v>12783</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>33850</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>141374</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>35189</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>17601</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>47338</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>61975</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>18037</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>8276</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>18319</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>27572</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>37531</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27">
         <v>70826</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27">
         <v>26820</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P27">
         <v>33276</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27">
         <v>109898</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R27">
         <v>23756</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S27">
         <v>24055</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T27">
         <v>20279</v>
       </c>
-      <c r="U27" t="n">
+      <c r="U27">
         <v>13152</v>
       </c>
-      <c r="V27" t="n">
+      <c r="V27">
         <v>44927</v>
       </c>
-      <c r="W27" t="n">
+      <c r="W27">
         <v>43398</v>
       </c>
-      <c r="X27" t="n">
+      <c r="X27">
         <v>97753</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="Y27">
         <v>82976</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="Z27">
         <v>11676</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AA27">
         <v>0</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AB27">
         <v>10644</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AC27">
         <v>19308</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AD27">
         <v>27575</v>
       </c>
-      <c r="AE27" t="n">
-        <v>15510</v>
-      </c>
-      <c r="AF27" t="n">
+      <c r="AE27">
         <v>8640</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="AF27">
         <v>734</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AG27">
         <v>7596</v>
       </c>
-      <c r="AI27" t="n">
+      <c r="AH27">
         <v>18176</v>
       </c>
-      <c r="AJ27" t="n">
+      <c r="AI27">
         <v>15094</v>
       </c>
-      <c r="AK27" t="n">
+      <c r="AJ27">
         <v>21281</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Toulouse/Negogousses(Les Arenes)</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
         <v>7785</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>33235</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>135120</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>34391</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>8390</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>41084</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>55721</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>10575</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>17257</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>13200</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>16928</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>32784</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28">
         <v>60182</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28">
         <v>16791</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P28">
         <v>23708</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28">
         <v>103644</v>
       </c>
-      <c r="R28" t="n">
+      <c r="R28">
         <v>17502</v>
       </c>
-      <c r="S28" t="n">
+      <c r="S28">
         <v>14014</v>
       </c>
-      <c r="T28" t="n">
+      <c r="T28">
         <v>9635</v>
       </c>
-      <c r="U28" t="n">
+      <c r="U28">
         <v>7823</v>
       </c>
-      <c r="V28" t="n">
+      <c r="V28">
         <v>54523</v>
       </c>
-      <c r="W28" t="n">
+      <c r="W28">
         <v>34136</v>
       </c>
-      <c r="X28" t="n">
+      <c r="X28">
         <v>91499</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="Y28">
         <v>76722</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="Z28">
         <v>2564</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AA28">
         <v>9779</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AB28">
         <v>0</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AC28">
         <v>8664</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AD28">
         <v>36556</v>
       </c>
-      <c r="AE28" t="n">
-        <v>9755</v>
-      </c>
-      <c r="AF28" t="n">
+      <c r="AE28">
         <v>9400</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AF28">
         <v>10330</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AG28">
         <v>15848</v>
       </c>
-      <c r="AI28" t="n">
+      <c r="AH28">
         <v>9064</v>
       </c>
-      <c r="AJ28" t="n">
+      <c r="AI28">
         <v>14872</v>
       </c>
-      <c r="AK28" t="n">
+      <c r="AJ28">
         <v>11016</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Tournefeuille</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
         <v>15167</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>32608</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>132487</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>41859</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>12087</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>38451</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>52946</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>6713</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>24725</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>19238</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>9585</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>37194</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29">
         <v>52839</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O29">
         <v>10599</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P29">
         <v>18194</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q29">
         <v>100072</v>
       </c>
-      <c r="R29" t="n">
+      <c r="R29">
         <v>15092</v>
       </c>
-      <c r="S29" t="n">
+      <c r="S29">
         <v>9365</v>
       </c>
-      <c r="T29" t="n">
+      <c r="T29">
         <v>2394</v>
       </c>
-      <c r="U29" t="n">
+      <c r="U29">
         <v>10289</v>
       </c>
-      <c r="V29" t="n">
+      <c r="V29">
         <v>61991</v>
       </c>
-      <c r="W29" t="n">
+      <c r="W29">
         <v>27673</v>
       </c>
-      <c r="X29" t="n">
+      <c r="X29">
         <v>88866</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="Y29">
         <v>74089</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="Z29">
         <v>9110</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AA29">
         <v>17247</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AB29">
         <v>7468</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AC29">
         <v>0</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AD29">
         <v>44024</v>
       </c>
-      <c r="AE29" t="n">
-        <v>14520</v>
-      </c>
-      <c r="AF29" t="n">
+      <c r="AE29">
         <v>16586</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AF29">
         <v>17798</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AG29">
         <v>23316</v>
       </c>
-      <c r="AI29" t="n">
+      <c r="AH29">
         <v>12090</v>
       </c>
-      <c r="AJ29" t="n">
+      <c r="AI29">
         <v>22340</v>
       </c>
-      <c r="AK29" t="n">
+      <c r="AJ29">
         <v>4148</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>Villefranche de Lauragais</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
         <v>40411</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>25431</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>147077</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>56722</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>44543</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>52884</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>67048</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>41087</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>21689</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>45513</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>50499</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30">
         <v>64725</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30">
         <v>87717</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O30">
         <v>53762</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P30">
         <v>60218</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30">
         <v>116109</v>
       </c>
-      <c r="R30" t="n">
+      <c r="R30">
         <v>42578</v>
       </c>
-      <c r="S30" t="n">
+      <c r="S30">
         <v>50997</v>
       </c>
-      <c r="T30" t="n">
+      <c r="T30">
         <v>47221</v>
       </c>
-      <c r="U30" t="n">
+      <c r="U30">
         <v>37942</v>
       </c>
-      <c r="V30" t="n">
+      <c r="V30">
         <v>28613</v>
       </c>
-      <c r="W30" t="n">
+      <c r="W30">
         <v>60125</v>
       </c>
-      <c r="X30" t="n">
+      <c r="X30">
         <v>103964</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="Y30">
         <v>88679</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="Z30">
         <v>38618</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AA30">
         <v>27843</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AB30">
         <v>37586</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AC30">
         <v>46250</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AD30">
         <v>0</v>
       </c>
-      <c r="AE30" t="n">
-        <v>42936</v>
-      </c>
-      <c r="AF30" t="n">
+      <c r="AE30">
         <v>35834</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AF30">
         <v>27577</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AG30">
         <v>31902</v>
       </c>
-      <c r="AI30" t="n">
+      <c r="AH30">
         <v>45118</v>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AI30">
         <v>42288</v>
       </c>
-      <c r="AK30" t="n">
+      <c r="AJ30">
         <v>48602</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>METRO</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>3931</v>
-      </c>
-      <c r="C31" t="n">
-        <v>40164</v>
-      </c>
-      <c r="D31" t="n">
-        <v>142049</v>
-      </c>
-      <c r="E31" t="n">
-        <v>28476</v>
-      </c>
-      <c r="F31" t="n">
-        <v>6536</v>
-      </c>
-      <c r="G31" t="n">
-        <v>48013</v>
-      </c>
-      <c r="H31" t="n">
-        <v>62650</v>
-      </c>
-      <c r="I31" t="n">
-        <v>16775</v>
-      </c>
-      <c r="J31" t="n">
-        <v>20288</v>
-      </c>
-      <c r="K31" t="n">
-        <v>5809</v>
-      </c>
-      <c r="L31" t="n">
-        <v>21891</v>
-      </c>
-      <c r="M31" t="n">
-        <v>24796</v>
-      </c>
-      <c r="N31" t="n">
-        <v>65152</v>
-      </c>
-      <c r="O31" t="n">
-        <v>19967</v>
-      </c>
-      <c r="P31" t="n">
-        <v>25160</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>110573</v>
-      </c>
-      <c r="R31" t="n">
-        <v>24431</v>
-      </c>
-      <c r="S31" t="n">
-        <v>15939</v>
-      </c>
-      <c r="T31" t="n">
-        <v>14700</v>
-      </c>
-      <c r="U31" t="n">
-        <v>14651</v>
-      </c>
-      <c r="V31" t="n">
-        <v>57068</v>
-      </c>
-      <c r="W31" t="n">
-        <v>39428</v>
-      </c>
-      <c r="X31" t="n">
-        <v>98428</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>83651</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>7020</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>13337</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>8552</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>13729</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>39587</v>
-      </c>
-      <c r="AE31" t="n">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>5363</v>
+      </c>
+      <c r="C31">
+        <v>41303</v>
+      </c>
+      <c r="D31">
+        <v>144195</v>
+      </c>
+      <c r="E31">
+        <v>27773</v>
+      </c>
+      <c r="F31">
+        <v>13717</v>
+      </c>
+      <c r="G31">
+        <v>50159</v>
+      </c>
+      <c r="H31">
+        <v>64047</v>
+      </c>
+      <c r="I31">
+        <v>18462</v>
+      </c>
+      <c r="J31">
+        <v>17228</v>
+      </c>
+      <c r="K31">
+        <v>10903</v>
+      </c>
+      <c r="L31">
+        <v>27142</v>
+      </c>
+      <c r="M31">
+        <v>28891</v>
+      </c>
+      <c r="N31">
+        <v>70396</v>
+      </c>
+      <c r="O31">
+        <v>25073</v>
+      </c>
+      <c r="P31">
+        <v>32165</v>
+      </c>
+      <c r="Q31">
+        <v>112719</v>
+      </c>
+      <c r="R31">
+        <v>24619</v>
+      </c>
+      <c r="S31">
+        <v>22944</v>
+      </c>
+      <c r="T31">
+        <v>19849</v>
+      </c>
+      <c r="U31">
+        <v>14691</v>
+      </c>
+      <c r="V31">
+        <v>51763</v>
+      </c>
+      <c r="W31">
+        <v>44350</v>
+      </c>
+      <c r="X31">
+        <v>100574</v>
+      </c>
+      <c r="Y31">
+        <v>85797</v>
+      </c>
+      <c r="Z31">
+        <v>10565</v>
+      </c>
+      <c r="AA31">
+        <v>8959</v>
+      </c>
+      <c r="AB31">
+        <v>10788</v>
+      </c>
+      <c r="AC31">
+        <v>18878</v>
+      </c>
+      <c r="AD31">
+        <v>36534</v>
+      </c>
+      <c r="AE31">
         <v>0</v>
       </c>
-      <c r="AF31" t="n">
-        <v>8720</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>13888</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>17614</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>7331</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>11131</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>14922</v>
+      <c r="AF31">
+        <v>9510</v>
+      </c>
+      <c r="AG31">
+        <v>12309</v>
+      </c>
+      <c r="AH31">
+        <v>14512</v>
+      </c>
+      <c r="AI31">
+        <v>7641</v>
+      </c>
+      <c r="AJ31">
+        <v>20028</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Auchan Gramont</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>5363</v>
-      </c>
-      <c r="C32" t="n">
-        <v>41303</v>
-      </c>
-      <c r="D32" t="n">
-        <v>144195</v>
-      </c>
-      <c r="E32" t="n">
-        <v>27773</v>
-      </c>
-      <c r="F32" t="n">
-        <v>13717</v>
-      </c>
-      <c r="G32" t="n">
-        <v>50159</v>
-      </c>
-      <c r="H32" t="n">
-        <v>64047</v>
-      </c>
-      <c r="I32" t="n">
-        <v>18462</v>
-      </c>
-      <c r="J32" t="n">
-        <v>17228</v>
-      </c>
-      <c r="K32" t="n">
-        <v>10903</v>
-      </c>
-      <c r="L32" t="n">
-        <v>27142</v>
-      </c>
-      <c r="M32" t="n">
-        <v>28891</v>
-      </c>
-      <c r="N32" t="n">
-        <v>70396</v>
-      </c>
-      <c r="O32" t="n">
-        <v>25073</v>
-      </c>
-      <c r="P32" t="n">
-        <v>32165</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>112719</v>
-      </c>
-      <c r="R32" t="n">
-        <v>24619</v>
-      </c>
-      <c r="S32" t="n">
-        <v>22944</v>
-      </c>
-      <c r="T32" t="n">
-        <v>19849</v>
-      </c>
-      <c r="U32" t="n">
-        <v>14691</v>
-      </c>
-      <c r="V32" t="n">
-        <v>51763</v>
-      </c>
-      <c r="W32" t="n">
-        <v>44350</v>
-      </c>
-      <c r="X32" t="n">
-        <v>100574</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>85797</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>10565</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>8959</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>10788</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>18878</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>36534</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>8433</v>
-      </c>
-      <c r="AF32" t="n">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>13512</v>
+      </c>
+      <c r="C32">
+        <v>34383</v>
+      </c>
+      <c r="D32">
+        <v>141907</v>
+      </c>
+      <c r="E32">
+        <v>35722</v>
+      </c>
+      <c r="F32">
+        <v>18134</v>
+      </c>
+      <c r="G32">
+        <v>47871</v>
+      </c>
+      <c r="H32">
+        <v>62508</v>
+      </c>
+      <c r="I32">
+        <v>18570</v>
+      </c>
+      <c r="J32">
+        <v>7909</v>
+      </c>
+      <c r="K32">
+        <v>18852</v>
+      </c>
+      <c r="L32">
+        <v>28105</v>
+      </c>
+      <c r="M32">
+        <v>38064</v>
+      </c>
+      <c r="N32">
+        <v>71359</v>
+      </c>
+      <c r="O32">
+        <v>27353</v>
+      </c>
+      <c r="P32">
+        <v>33809</v>
+      </c>
+      <c r="Q32">
+        <v>110431</v>
+      </c>
+      <c r="R32">
+        <v>24289</v>
+      </c>
+      <c r="S32">
+        <v>24588</v>
+      </c>
+      <c r="T32">
+        <v>20812</v>
+      </c>
+      <c r="U32">
+        <v>13685</v>
+      </c>
+      <c r="V32">
+        <v>44695</v>
+      </c>
+      <c r="W32">
+        <v>43931</v>
+      </c>
+      <c r="X32">
+        <v>98286</v>
+      </c>
+      <c r="Y32">
+        <v>83509</v>
+      </c>
+      <c r="Z32">
+        <v>12209</v>
+      </c>
+      <c r="AA32">
+        <v>729</v>
+      </c>
+      <c r="AB32">
+        <v>11177</v>
+      </c>
+      <c r="AC32">
+        <v>19841</v>
+      </c>
+      <c r="AD32">
+        <v>27208</v>
+      </c>
+      <c r="AE32">
+        <v>9173</v>
+      </c>
+      <c r="AF32">
         <v>0</v>
       </c>
-      <c r="AG32" t="n">
-        <v>9510</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>12309</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>14512</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>7641</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>20028</v>
+      <c r="AG32">
+        <v>6862</v>
+      </c>
+      <c r="AH32">
+        <v>18709</v>
+      </c>
+      <c r="AI32">
+        <v>15627</v>
+      </c>
+      <c r="AJ32">
+        <v>22010</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>Leclerc St Orens</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>13512</v>
-      </c>
-      <c r="C33" t="n">
-        <v>34383</v>
-      </c>
-      <c r="D33" t="n">
-        <v>141907</v>
-      </c>
-      <c r="E33" t="n">
-        <v>35722</v>
-      </c>
-      <c r="F33" t="n">
-        <v>18134</v>
-      </c>
-      <c r="G33" t="n">
-        <v>47871</v>
-      </c>
-      <c r="H33" t="n">
-        <v>62508</v>
-      </c>
-      <c r="I33" t="n">
-        <v>18570</v>
-      </c>
-      <c r="J33" t="n">
-        <v>7909</v>
-      </c>
-      <c r="K33" t="n">
-        <v>18852</v>
-      </c>
-      <c r="L33" t="n">
-        <v>28105</v>
-      </c>
-      <c r="M33" t="n">
-        <v>38064</v>
-      </c>
-      <c r="N33" t="n">
-        <v>71359</v>
-      </c>
-      <c r="O33" t="n">
-        <v>27353</v>
-      </c>
-      <c r="P33" t="n">
-        <v>33809</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>110431</v>
-      </c>
-      <c r="R33" t="n">
-        <v>24289</v>
-      </c>
-      <c r="S33" t="n">
-        <v>24588</v>
-      </c>
-      <c r="T33" t="n">
-        <v>20812</v>
-      </c>
-      <c r="U33" t="n">
-        <v>13685</v>
-      </c>
-      <c r="V33" t="n">
-        <v>44695</v>
-      </c>
-      <c r="W33" t="n">
-        <v>43931</v>
-      </c>
-      <c r="X33" t="n">
-        <v>98286</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>83509</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>12209</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>729</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>11177</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>19841</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>27208</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>15771</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>9173</v>
-      </c>
-      <c r="AG33" t="n">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>16028</v>
+      </c>
+      <c r="C33">
+        <v>40960</v>
+      </c>
+      <c r="D33">
+        <v>148817</v>
+      </c>
+      <c r="E33">
+        <v>33848</v>
+      </c>
+      <c r="F33">
+        <v>20651</v>
+      </c>
+      <c r="G33">
+        <v>54781</v>
+      </c>
+      <c r="H33">
+        <v>69276</v>
+      </c>
+      <c r="I33">
+        <v>23043</v>
+      </c>
+      <c r="J33">
+        <v>13661</v>
+      </c>
+      <c r="K33">
+        <v>21564</v>
+      </c>
+      <c r="L33">
+        <v>31806</v>
+      </c>
+      <c r="M33">
+        <v>40174</v>
+      </c>
+      <c r="N33">
+        <v>75060</v>
+      </c>
+      <c r="O33">
+        <v>30594</v>
+      </c>
+      <c r="P33">
+        <v>37050</v>
+      </c>
+      <c r="Q33">
+        <v>117341</v>
+      </c>
+      <c r="R33">
+        <v>29554</v>
+      </c>
+      <c r="S33">
+        <v>27829</v>
+      </c>
+      <c r="T33">
+        <v>24513</v>
+      </c>
+      <c r="U33">
+        <v>19626</v>
+      </c>
+      <c r="V33">
+        <v>42911</v>
+      </c>
+      <c r="W33">
+        <v>49014</v>
+      </c>
+      <c r="X33">
+        <v>105196</v>
+      </c>
+      <c r="Y33">
+        <v>90419</v>
+      </c>
+      <c r="Z33">
+        <v>15450</v>
+      </c>
+      <c r="AA33">
+        <v>8670</v>
+      </c>
+      <c r="AB33">
+        <v>15452</v>
+      </c>
+      <c r="AC33">
+        <v>23542</v>
+      </c>
+      <c r="AD33">
+        <v>32747</v>
+      </c>
+      <c r="AE33">
+        <v>11283</v>
+      </c>
+      <c r="AF33">
+        <v>8970</v>
+      </c>
+      <c r="AG33">
         <v>0</v>
       </c>
-      <c r="AH33" t="n">
-        <v>6862</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>18709</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>15627</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>22010</v>
+      <c r="AH33">
+        <v>21446</v>
+      </c>
+      <c r="AI33">
+        <v>15935</v>
+      </c>
+      <c r="AJ33">
+        <v>25894</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Super U Flourens</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>16028</v>
-      </c>
-      <c r="C34" t="n">
-        <v>40960</v>
-      </c>
-      <c r="D34" t="n">
-        <v>148817</v>
-      </c>
-      <c r="E34" t="n">
-        <v>33848</v>
-      </c>
-      <c r="F34" t="n">
-        <v>20651</v>
-      </c>
-      <c r="G34" t="n">
-        <v>54781</v>
-      </c>
-      <c r="H34" t="n">
-        <v>69276</v>
-      </c>
-      <c r="I34" t="n">
-        <v>23043</v>
-      </c>
-      <c r="J34" t="n">
-        <v>13661</v>
-      </c>
-      <c r="K34" t="n">
-        <v>21564</v>
-      </c>
-      <c r="L34" t="n">
-        <v>31806</v>
-      </c>
-      <c r="M34" t="n">
-        <v>40174</v>
-      </c>
-      <c r="N34" t="n">
-        <v>75060</v>
-      </c>
-      <c r="O34" t="n">
-        <v>30594</v>
-      </c>
-      <c r="P34" t="n">
-        <v>37050</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>117341</v>
-      </c>
-      <c r="R34" t="n">
-        <v>29554</v>
-      </c>
-      <c r="S34" t="n">
-        <v>27829</v>
-      </c>
-      <c r="T34" t="n">
-        <v>24513</v>
-      </c>
-      <c r="U34" t="n">
-        <v>19626</v>
-      </c>
-      <c r="V34" t="n">
-        <v>42911</v>
-      </c>
-      <c r="W34" t="n">
-        <v>49014</v>
-      </c>
-      <c r="X34" t="n">
-        <v>105196</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>90419</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>15450</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>8670</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>15452</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>23542</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>32747</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>18670</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>11283</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>8970</v>
-      </c>
-      <c r="AH34" t="n">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>10059</v>
+      </c>
+      <c r="C34">
+        <v>40600</v>
+      </c>
+      <c r="D34">
+        <v>142485</v>
+      </c>
+      <c r="E34">
+        <v>37172</v>
+      </c>
+      <c r="F34">
+        <v>1981</v>
+      </c>
+      <c r="G34">
+        <v>48449</v>
+      </c>
+      <c r="H34">
+        <v>63017</v>
+      </c>
+      <c r="I34">
+        <v>16784</v>
+      </c>
+      <c r="J34">
+        <v>24300</v>
+      </c>
+      <c r="K34">
+        <v>13860</v>
+      </c>
+      <c r="L34">
+        <v>20770</v>
+      </c>
+      <c r="M34">
+        <v>27454</v>
+      </c>
+      <c r="N34">
+        <v>64545</v>
+      </c>
+      <c r="O34">
+        <v>16195</v>
+      </c>
+      <c r="P34">
+        <v>18532</v>
+      </c>
+      <c r="Q34">
+        <v>111009</v>
+      </c>
+      <c r="R34">
+        <v>24867</v>
+      </c>
+      <c r="S34">
+        <v>11001</v>
+      </c>
+      <c r="T34">
+        <v>14282</v>
+      </c>
+      <c r="U34">
+        <v>15962</v>
+      </c>
+      <c r="V34">
+        <v>61080</v>
+      </c>
+      <c r="W34">
+        <v>39679</v>
+      </c>
+      <c r="X34">
+        <v>98864</v>
+      </c>
+      <c r="Y34">
+        <v>84087</v>
+      </c>
+      <c r="Z34">
+        <v>7388</v>
+      </c>
+      <c r="AA34">
+        <v>17349</v>
+      </c>
+      <c r="AB34">
+        <v>8920</v>
+      </c>
+      <c r="AC34">
+        <v>13311</v>
+      </c>
+      <c r="AD34">
+        <v>43599</v>
+      </c>
+      <c r="AE34">
+        <v>13069</v>
+      </c>
+      <c r="AF34">
+        <v>17900</v>
+      </c>
+      <c r="AG34">
+        <v>21626</v>
+      </c>
+      <c r="AH34">
         <v>0</v>
       </c>
-      <c r="AI34" t="n">
-        <v>21446</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>15935</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>25894</v>
+      <c r="AI34">
+        <v>18046</v>
+      </c>
+      <c r="AJ34">
+        <v>12710</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>Leclerc Blagnac</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>10059</v>
-      </c>
-      <c r="C35" t="n">
-        <v>40600</v>
-      </c>
-      <c r="D35" t="n">
-        <v>142485</v>
-      </c>
-      <c r="E35" t="n">
-        <v>37172</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1981</v>
-      </c>
-      <c r="G35" t="n">
-        <v>48449</v>
-      </c>
-      <c r="H35" t="n">
-        <v>63017</v>
-      </c>
-      <c r="I35" t="n">
-        <v>16784</v>
-      </c>
-      <c r="J35" t="n">
-        <v>24300</v>
-      </c>
-      <c r="K35" t="n">
-        <v>13860</v>
-      </c>
-      <c r="L35" t="n">
-        <v>20770</v>
-      </c>
-      <c r="M35" t="n">
-        <v>27454</v>
-      </c>
-      <c r="N35" t="n">
-        <v>64545</v>
-      </c>
-      <c r="O35" t="n">
-        <v>16195</v>
-      </c>
-      <c r="P35" t="n">
-        <v>18532</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>111009</v>
-      </c>
-      <c r="R35" t="n">
-        <v>24867</v>
-      </c>
-      <c r="S35" t="n">
-        <v>11001</v>
-      </c>
-      <c r="T35" t="n">
-        <v>14282</v>
-      </c>
-      <c r="U35" t="n">
-        <v>15962</v>
-      </c>
-      <c r="V35" t="n">
-        <v>61080</v>
-      </c>
-      <c r="W35" t="n">
-        <v>39679</v>
-      </c>
-      <c r="X35" t="n">
-        <v>98864</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>84087</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>7388</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>17349</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>8920</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>13311</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>43599</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>9412</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>13069</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>17900</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>21626</v>
-      </c>
-      <c r="AI35" t="n">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>9339</v>
+      </c>
+      <c r="C35">
+        <v>49058</v>
+      </c>
+      <c r="D35">
+        <v>150630</v>
+      </c>
+      <c r="E35">
+        <v>22078</v>
+      </c>
+      <c r="F35">
+        <v>17734</v>
+      </c>
+      <c r="G35">
+        <v>56594</v>
+      </c>
+      <c r="H35">
+        <v>70795</v>
+      </c>
+      <c r="I35">
+        <v>24856</v>
+      </c>
+      <c r="J35">
+        <v>23187</v>
+      </c>
+      <c r="K35">
+        <v>13112</v>
+      </c>
+      <c r="L35">
+        <v>32720</v>
+      </c>
+      <c r="M35">
+        <v>30059</v>
+      </c>
+      <c r="N35">
+        <v>75990</v>
+      </c>
+      <c r="O35">
+        <v>31287</v>
+      </c>
+      <c r="P35">
+        <v>36494</v>
+      </c>
+      <c r="Q35">
+        <v>119154</v>
+      </c>
+      <c r="R35">
+        <v>31367</v>
+      </c>
+      <c r="S35">
+        <v>26972</v>
+      </c>
+      <c r="T35">
+        <v>25427</v>
+      </c>
+      <c r="U35">
+        <v>21439</v>
+      </c>
+      <c r="V35">
+        <v>52468</v>
+      </c>
+      <c r="W35">
+        <v>49928</v>
+      </c>
+      <c r="X35">
+        <v>107009</v>
+      </c>
+      <c r="Y35">
+        <v>92232</v>
+      </c>
+      <c r="Z35">
+        <v>16143</v>
+      </c>
+      <c r="AA35">
+        <v>16236</v>
+      </c>
+      <c r="AB35">
+        <v>16366</v>
+      </c>
+      <c r="AC35">
+        <v>24217</v>
+      </c>
+      <c r="AD35">
+        <v>43758</v>
+      </c>
+      <c r="AE35">
+        <v>8278</v>
+      </c>
+      <c r="AF35">
+        <v>16787</v>
+      </c>
+      <c r="AG35">
+        <v>15934</v>
+      </c>
+      <c r="AH35">
+        <v>18529</v>
+      </c>
+      <c r="AI35">
         <v>0</v>
       </c>
-      <c r="AJ35" t="n">
-        <v>18046</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>12710</v>
+      <c r="AJ35">
+        <v>25955</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Leclerc Rouffiac</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>9339</v>
-      </c>
-      <c r="C36" t="n">
-        <v>49058</v>
-      </c>
-      <c r="D36" t="n">
-        <v>150630</v>
-      </c>
-      <c r="E36" t="n">
-        <v>22078</v>
-      </c>
-      <c r="F36" t="n">
-        <v>17734</v>
-      </c>
-      <c r="G36" t="n">
-        <v>56594</v>
-      </c>
-      <c r="H36" t="n">
-        <v>70795</v>
-      </c>
-      <c r="I36" t="n">
-        <v>24856</v>
-      </c>
-      <c r="J36" t="n">
-        <v>23187</v>
-      </c>
-      <c r="K36" t="n">
-        <v>13112</v>
-      </c>
-      <c r="L36" t="n">
-        <v>32720</v>
-      </c>
-      <c r="M36" t="n">
-        <v>30059</v>
-      </c>
-      <c r="N36" t="n">
-        <v>75990</v>
-      </c>
-      <c r="O36" t="n">
-        <v>31287</v>
-      </c>
-      <c r="P36" t="n">
-        <v>36494</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>119154</v>
-      </c>
-      <c r="R36" t="n">
-        <v>31367</v>
-      </c>
-      <c r="S36" t="n">
-        <v>26972</v>
-      </c>
-      <c r="T36" t="n">
-        <v>25427</v>
-      </c>
-      <c r="U36" t="n">
-        <v>21439</v>
-      </c>
-      <c r="V36" t="n">
-        <v>52468</v>
-      </c>
-      <c r="W36" t="n">
-        <v>49928</v>
-      </c>
-      <c r="X36" t="n">
-        <v>107009</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>92232</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>16143</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>16236</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>16366</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>24217</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>43758</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>11334</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>8278</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>16787</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>15934</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>18529</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>25955</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Carrefour Supply Chain</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
         <v>17477</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C36">
         <v>36963</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D36">
         <v>133137</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E36">
         <v>44266</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F36">
         <v>14667</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G36">
         <v>39101</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H36">
         <v>53596</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I36">
         <v>9804</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J36">
         <v>27637</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K36">
         <v>21600</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L36">
         <v>9558</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M36">
         <v>37207</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N36">
         <v>53444</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O36">
         <v>6477</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P36">
         <v>14072</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q36">
         <v>100677</v>
       </c>
-      <c r="R37" t="n">
+      <c r="R36">
         <v>17852</v>
       </c>
-      <c r="S37" t="n">
+      <c r="S36">
         <v>6148</v>
       </c>
-      <c r="T37" t="n">
+      <c r="T36">
         <v>4435</v>
       </c>
-      <c r="U37" t="n">
+      <c r="U36">
         <v>13986</v>
       </c>
-      <c r="V37" t="n">
+      <c r="V36">
         <v>64903</v>
       </c>
-      <c r="W37" t="n">
+      <c r="W36">
         <v>28176</v>
       </c>
-      <c r="X37" t="n">
+      <c r="X36">
         <v>90154</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="Y36">
         <v>74739</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="Z36">
         <v>11651</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AA36">
         <v>20159</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AB36">
         <v>10380</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AC36">
         <v>4996</v>
       </c>
-      <c r="AD37" t="n">
+      <c r="AD36">
         <v>46936</v>
       </c>
-      <c r="AE37" t="n">
-        <v>16830</v>
-      </c>
-      <c r="AF37" t="n">
+      <c r="AE36">
         <v>19528</v>
       </c>
-      <c r="AG37" t="n">
+      <c r="AF36">
         <v>20710</v>
       </c>
-      <c r="AH37" t="n">
+      <c r="AG36">
         <v>25830</v>
       </c>
-      <c r="AI37" t="n">
+      <c r="AH36">
         <v>13558</v>
       </c>
-      <c r="AJ37" t="n">
+      <c r="AI36">
         <v>25252</v>
       </c>
-      <c r="AK37" t="n">
+      <c r="AJ36">
         <v>0</v>
       </c>
     </row>
